--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_72.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_72.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,622 +488,660 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_182</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.4833333333333333</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_178</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3028846153846154</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G', 'C/5', 'G', 'C/5']]</t>
+          <t>[['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(142.14, 147.86)]</t>
+          <t>[['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(59.182426, 66.310952)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:02.300000', '0:00:07.040000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:01:28.760000', '0:01:38.300000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1407407407407407</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
-        </is>
+          <t>jaah_55</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_294</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08831168831168831</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G', 'D']]</t>
+          <t>[['C', 'C', 'C'], ['C', 'C', 'F']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(31.840929, 39.410634)]</t>
+          <t>[['G/3', 'G', 'G'], ['G/3', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(3.294, 7.605)]</t>
+          <t>[('0:00:34.410000', '0:00:36.320000'), ('0:00:36', '0:00:37.280000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+          <t>[('0:00:01.366439', '0:00:05.255782'), ('0:00:05.894331', '0:00:09.748843')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_4</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1454545454545454</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'F:min'], ['C:min', 'F:min', 'C:min/5']]</t>
-        </is>
+          <t>schubert-winterreise_116</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1169415292353823</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min'], ['A:min', 'D:min', 'A:min']]</t>
+          <t>[['G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(156.152, 159.022), (84.323, 87.713)]</t>
+          <t>[['G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(44.2, 52.32), (13.52, 19.88)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:19.980000', '0:00:27.180000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:03.100000', '0:00:05.580000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_150</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1020242914979757</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'G:maj', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_101</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2848837209302326</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G', 'G', 'E:min']]</t>
+          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(8.28, 15.8)]</t>
+          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(47.639639, 53.885807)]</t>
+          <t>[('0:00:30.800000', '0:00:45.300000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:59.680000', '0:01:05.780000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_166</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2358870967741936</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Ab', 'Eb:7']]</t>
-        </is>
+          <t>isophonics_170</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_66</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.07338709677419356</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G', 'G', 'D:7']]</t>
+          <t>[['D', 'D:maj(*1)/#1', 'E:7']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(7.05, 9.89)]</t>
+          <t>[['C', 'C', 'D:7/C']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(0.440395, 12.905056)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:38.902458', '0:00:41.627674')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:04:13.620000', '0:04:21.680000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_71</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_125</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1880877742946708</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:min', 'F:7', 'Bb:7']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_181</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5405405405405406</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:7', 'C:7']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(97.39, 100.09)]</t>
+          <t>[['Bb', 'Eb', 'Bb']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(58.24, 62.1)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:00.761383', '0:01:09.294716')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07950191570881227</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['F:7', 'Bb:7', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_157</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.425</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab:maj', 'Ab/7'], ['Bb:7', 'Eb:7', 'Ab:maj']]</t>
+          <t>[['F:maj', 'C:maj/G', 'F:maj/A'], ['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(31.89, 34.57), (43.61, 45.41)]</t>
+          <t>[['A', 'E', 'A'], ['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(54.072, 59.053), (37.633, 41.753)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:02:00', '0:02:02.700000'), ('0:01:57.540000', '0:02:01.800000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:08.150589', '0:01:15.697074'), ('0:00:02.612267', '0:00:17.443474')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_207</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3819444444444445</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.425</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['D/5', 'A', 'D'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(6.98, 20.82)]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(0.38, 8.9)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+          <t>[('0:00:27.963197', '0:00:34.290634'), ('0:00:28.450816', '0:00:36.229501')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:02:22.380000', '0:02:25.800000'), ('0:02:18.800000', '0:02:24.460000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2125874125874126</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D']]</t>
-        </is>
+          <t>isophonics_155</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4571428571428572</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:maj']]</t>
+          <t>[['Ab', 'Db/5', 'Ab', 'Db/5']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(0.8, 3.52)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(45.48, 56.6)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:04:21.828000', '0:04:33.028000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:02:08.540000', '0:02:13.900000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_30</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1863636363636363</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'E'], ['E', 'B', 'E']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5892857142857143</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'Bb'], ['Bb', 'F', 'Bb']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(29.888683, 33.836075), (32.233898, 36.959159)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(1.38, 4.14), (0.46, 3.22)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_21</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06744730679156909</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:7', 'Bb', 'Bb'], ['Bb', 'Bb:7', 'Bb:7'], ['Bb', 'F:7', 'Bb'], ['Bb:7', 'Eb:7', 'Eb:7']]</t>
-        </is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Ab'], ['Ab', 'Ab:7', 'Ab:7'], ['Ab', 'Eb:7', 'Ab'], ['Ab:7', 'Db:7', 'Db:7']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(43.56, 48.1), (22.85, 27.37), (49.56, 55.72), (28.07, 34.74)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(47.0, 47.79), (15.42, 18.52), (46.75, 47.53), (19.56, 22.68)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:01:21.620000', '0:01:43.560000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:19.120000', '0:01:39.320000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.111969111969112</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Eb', 'Eb:7']]</t>
-        </is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'D#:maj'], ['D#:maj', 'D#:maj', 'D#:7']]</t>
+          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min', 'G:min', 'A:hdim7/C', 'D:7', 'G:min', 'F#:dim7', 'G:min', 'F#:dim7', 'D:maj/A', 'G:min/A#', 'F:maj/A', 'D#:maj/G', 'A#:maj/F', 'D#:maj', 'A#:maj/F', 'F:7', 'A#:maj', 'D#:maj/G', 'D:min/A', 'A:7', 'D:min', 'C#:dim7/E', 'D:min/F', 'D:(3,5,b7,b9)/F#', 'G:min', 'G:(3,5,b7,b9)', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'F#:dim7', 'A:hdim7/C', 'F#:dim7', 'A:hdim7/C', 'D:(3,5,b7,b9)', 'G:min', 'G:(3,5,b7,b9)/B', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(50.0, 56.61), (19.08, 27.81)]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(65.78, 74.48), (67.38, 77.76)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:00:09.180000', '0:01:01')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:13.080000', '0:01:14.300000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.4857142857142857</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E', 'B:7']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D', 'D:7']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(100.569342, 113.665396)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(62.2, 64.7)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:01:16.740000', '0:01:23.980000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:20.920000', '0:01:29.040000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2528735632183908</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'D', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(5.20815, 14.983242)]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(129.38, 135.34)]</t>
+          <t>[('0:00:49.020000', '0:01:44.600000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:40.100000', '0:01:24.580000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/B', 'A:min/C'], ['A:min', 'E:maj/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_38</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['D#:min', 'B', 'F:hdim7/G#', 'A#:7', 'D#:min', 'G#:min/B', 'A#:7', 'F#:min/A', 'G#:7', 'C#:min', 'G#:7', 'C#:min', 'G#', 'G#:min', 'D#:min/A#', 'A#', 'D#:min/A#', 'A#', 'D#:min', 'A#', 'D#:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(0.34, 2.34), (13.34, 16.08)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(8.2, 12.66), (0.78, 5.26)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_126</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>jaah_78</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2120901639344262</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A'], ['D:maj', 'A:7', 'D:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:7', 'Bb', 'Bb'], ['Bb', 'F:7', 'Bb']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(229.44, 238.32), (0.58, 9.4)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(43.56, 48.1), (49.56, 55.72)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:16.520000', '0:01:04.980000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:15.120000', '0:00:57.580000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
